--- a/data/recent_SOI.xlsx
+++ b/data/recent_SOI.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SOI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +49,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,289 +365,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1">
         <v>2013</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>-0.08117014193173107</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>-0.3423456771130134</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>1.073099696815539</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>0.1491029947312456</v>
       </c>
-      <c r="F1" t="n">
+      <c r="F1">
         <v>0.9494331993521372</v>
       </c>
-      <c r="G1" t="n">
+      <c r="G1">
         <v>1.503894719106565</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>0.8652868922005337</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1">
         <v>-0.01277594432472183</v>
       </c>
-      <c r="J1" t="n">
+      <c r="J1">
         <v>0.3308782248199819</v>
       </c>
-      <c r="K1" t="n">
+      <c r="K1">
         <v>-0.1817153849637608</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1">
         <v>0.8179879182664446</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1">
         <v>-0.02415273266634169</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
         <v>2014</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.233651991835433</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>-0.131763977658563</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-1.244675244412724</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.8841177574912225</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.5584901172660781</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-0.04904004518802021</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-0.2612901337502291</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-1.098731211927094</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>-0.8004020811204204</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>-0.7761115040039729</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>-1.049858509270951</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>-0.6389495641690857</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>2015</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-0.7385812088153663</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.0367013819050356</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-1.033968431573802</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-0.2184043866487428</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-1.23984806032935</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-1.11157435760008</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-1.454136396521563</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-1.929167593034739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-1.812600249593451</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>-1.964903742084532</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>-0.5989990267618917</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>-0.9975810492123968</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
         <v>2016</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-1.912529542536014</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-1.774301233403266</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-0.4018479930570353</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-1.835436864720642</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.4021128844317434</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.6865606326357211</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.4676714712767306</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.5621415502882688</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1.283535324559293</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>-0.4194738325797915</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>-0.1481395442528323</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>0.1807795445012979</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
         <v>2017</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.1536195248124091</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>-0.2159966574403145</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.5463326647182037</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-0.4389088154767861</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.1675470351801079</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-0.9481075403059672</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.8652868922004584</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.3705023854172961</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.6285835684885123</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.8881976293087831</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>1.075621908271663</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>-0.2290850098338648</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
         <v>2018</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.9049464583936684</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-0.5529273765674638</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.073099696815539</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.5166103761112341</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.3239242680145316</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-0.4577070884234423</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.2025945239942204</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-0.6515731605613942</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>-1.038566356055231</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.2938015102685035</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>-0.08373104675160085</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>0.8468094452959518</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
         <v>2019</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-0.03421220858289237</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-1.226788814821667</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-0.6125548058958975</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>